--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FB9A0-45AC-41C3-AFEB-38EB84982505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C6BC5F-9B9A-4ECF-8A23-81BA1D046701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Ngày bắt đầu</t>
   </si>
   <si>
-    <t>LHP51</t>
-  </si>
-  <si>
     <t>04-06</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>LT</t>
+  </si>
+  <si>
+    <t>TEST4</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,71 +454,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C6BC5F-9B9A-4ECF-8A23-81BA1D046701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240E323-5C2D-425E-B871-7AA533E8FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="780" windowWidth="19200" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,24 +48,15 @@
     <t>Ngày bắt đầu</t>
   </si>
   <si>
-    <t>04-06</t>
-  </si>
-  <si>
     <t>07-09</t>
   </si>
   <si>
-    <t>Chủ nhật</t>
-  </si>
-  <si>
     <t>B0.3(TH)</t>
   </si>
   <si>
     <t>GV19</t>
   </si>
   <si>
-    <t>2020-12-08</t>
-  </si>
-  <si>
     <t>07-10</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>A1.5(LT)</t>
   </si>
   <si>
-    <t>2020-12-09</t>
-  </si>
-  <si>
     <t>TH1</t>
   </si>
   <si>
@@ -87,7 +75,19 @@
     <t>LT</t>
   </si>
   <si>
-    <t>TEST4</t>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>LHP53</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,71 +454,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240E323-5C2D-425E-B871-7AA533E8FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6586A-A772-4447-B5A9-B314BA56DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="780" windowWidth="19200" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6586A-A772-4447-B5A9-B314BA56DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E18A5-51D7-45C3-800A-FA5A77E86738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Mã nhóm</t>
   </si>
@@ -48,18 +48,9 @@
     <t>Ngày bắt đầu</t>
   </si>
   <si>
-    <t>07-09</t>
-  </si>
-  <si>
     <t>B0.3(TH)</t>
   </si>
   <si>
-    <t>GV19</t>
-  </si>
-  <si>
-    <t>07-10</t>
-  </si>
-  <si>
     <t>Thứ 2</t>
   </si>
   <si>
@@ -75,19 +66,55 @@
     <t>LT</t>
   </si>
   <si>
-    <t>01-03</t>
-  </si>
-  <si>
-    <t>Thứ 3</t>
-  </si>
-  <si>
     <t>2022-12-08</t>
   </si>
   <si>
     <t>2022-12-09</t>
   </si>
   <si>
-    <t>LHP53</t>
+    <t>LHP56</t>
+  </si>
+  <si>
+    <t>04-06</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>08-11</t>
+  </si>
+  <si>
+    <t>LHP54</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>GV1</t>
+  </si>
+  <si>
+    <t>GV10</t>
+  </si>
+  <si>
+    <t>GV2</t>
+  </si>
+  <si>
+    <t>LHP55</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>B1.3(TH)</t>
+  </si>
+  <si>
+    <t>A3.5(LT)</t>
   </si>
 </sst>
 </file>
@@ -412,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,72 +481,167 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E18A5-51D7-45C3-800A-FA5A77E86738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825D84A-E081-4F30-B253-C66D012E231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Mã nhóm</t>
   </si>
@@ -81,18 +81,12 @@
     <t>10-12</t>
   </si>
   <si>
-    <t>08-11</t>
-  </si>
-  <si>
     <t>LHP54</t>
   </si>
   <si>
     <t>Thứ 6</t>
   </si>
   <si>
-    <t>Thứ 4</t>
-  </si>
-  <si>
     <t>GV1</t>
   </si>
   <si>
@@ -105,16 +99,22 @@
     <t>LHP55</t>
   </si>
   <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>LHP57</t>
+  </si>
+  <si>
+    <t>09-11</t>
+  </si>
+  <si>
     <t>Thứ 7</t>
   </si>
   <si>
-    <t>Thứ 5</t>
-  </si>
-  <si>
-    <t>B1.3(TH)</t>
-  </si>
-  <si>
-    <t>A3.5(LT)</t>
+    <t>A1.1(LT)</t>
+  </si>
+  <si>
+    <t>A1.2(LT)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -507,19 +507,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -530,10 +530,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -553,16 +553,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -573,70 +573,47 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825D84A-E081-4F30-B253-C66D012E231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD2AB3-01A9-4DF9-9809-AFED7DFDC981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Mã nhóm</t>
   </si>
@@ -48,73 +48,37 @@
     <t>Ngày bắt đầu</t>
   </si>
   <si>
-    <t>B0.3(TH)</t>
-  </si>
-  <si>
     <t>Thứ 2</t>
   </si>
   <si>
-    <t>A1.5(LT)</t>
-  </si>
-  <si>
-    <t>TH1</t>
-  </si>
-  <si>
-    <t>TH2</t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>LHP56</t>
-  </si>
-  <si>
     <t>04-06</t>
   </si>
   <si>
-    <t>10-12</t>
-  </si>
-  <si>
-    <t>LHP54</t>
-  </si>
-  <si>
-    <t>Thứ 6</t>
-  </si>
-  <si>
     <t>GV1</t>
   </si>
   <si>
-    <t>GV10</t>
-  </si>
-  <si>
-    <t>GV2</t>
-  </si>
-  <si>
-    <t>LHP55</t>
-  </si>
-  <si>
     <t>01-03</t>
   </si>
   <si>
-    <t>LHP57</t>
-  </si>
-  <si>
-    <t>09-11</t>
-  </si>
-  <si>
-    <t>Thứ 7</t>
-  </si>
-  <si>
     <t>A1.1(LT)</t>
   </si>
   <si>
-    <t>A1.2(LT)</t>
+    <t>GV24</t>
+  </si>
+  <si>
+    <t>LHP59</t>
+  </si>
+  <si>
+    <t>LHP58</t>
+  </si>
+  <si>
+    <t>2022-6-20</t>
+  </si>
+  <si>
+    <t>2022-6-21</t>
   </si>
 </sst>
 </file>
@@ -442,7 +406,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,141 +445,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>

--- a/file/datalichhoc.xlsx
+++ b/file/datalichhoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD2AB3-01A9-4DF9-9809-AFED7DFDC981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0A490-0D3F-472D-B2D9-99E05A8EB727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Mã nhóm</t>
   </si>
@@ -48,44 +48,68 @@
     <t>Ngày bắt đầu</t>
   </si>
   <si>
-    <t>Thứ 2</t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
     <t>04-06</t>
   </si>
   <si>
-    <t>GV1</t>
-  </si>
-  <si>
     <t>01-03</t>
   </si>
   <si>
     <t>A1.1(LT)</t>
   </si>
   <si>
-    <t>GV24</t>
-  </si>
-  <si>
-    <t>LHP59</t>
-  </si>
-  <si>
-    <t>LHP58</t>
-  </si>
-  <si>
     <t>2022-6-20</t>
   </si>
   <si>
     <t>2022-6-21</t>
+  </si>
+  <si>
+    <t>LHP60</t>
+  </si>
+  <si>
+    <t>LHP61</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>GV2</t>
+  </si>
+  <si>
+    <t>GV10</t>
+  </si>
+  <si>
+    <t>LHP62</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>A1.5(LT)</t>
+  </si>
+  <si>
+    <t>G5.1(LT)</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>GV26</t>
+  </si>
+  <si>
+    <t>2022-6-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +119,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +438,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,53 +477,72 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
